--- a/raw_data/KEEN ONE/Byrnes/2016/NW Appledore 2016/NWAppledore_quad_2016.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2016/NW Appledore 2016/NWAppledore_quad_2016.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33060" yWindow="-9660" windowWidth="29540" windowHeight="17020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
     <sheet name="Allowed Codes" sheetId="4" r:id="rId2"/>
+    <sheet name="Changelog" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -220,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="232">
   <si>
     <t>YEAR</t>
   </si>
@@ -1371,6 +1372,15 @@
   </si>
   <si>
     <t>LARUS_LEDGE</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>8/12 changed to 8/11 - someone wrote down the wrong date!</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1608,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1694,6 +1704,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2209,7 +2220,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O43" sqref="O43"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3042,7 +3053,7 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>42594</v>
@@ -3099,7 +3110,7 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3">
         <v>42594</v>
@@ -3162,7 +3173,7 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3">
         <v>42594</v>
@@ -3219,7 +3230,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3">
         <v>42594</v>
@@ -3274,7 +3285,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3">
         <v>42594</v>
@@ -3327,7 +3338,7 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="3">
         <v>42594</v>
@@ -3382,7 +3393,7 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3">
         <v>42594</v>
@@ -3435,7 +3446,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="3">
         <v>42594</v>
@@ -3498,7 +3509,7 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="3">
         <v>42594</v>
@@ -3561,7 +3572,7 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="3">
         <v>42594</v>
@@ -3620,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="3">
         <v>42594</v>
@@ -3673,7 +3684,7 @@
         <v>8</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="3">
         <v>42594</v>
@@ -3726,7 +3737,7 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="3">
         <v>42594</v>
@@ -3779,7 +3790,7 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="3">
         <v>42594</v>
@@ -3834,7 +3845,7 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3">
         <v>42594</v>
@@ -3887,7 +3898,7 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="3">
         <v>42594</v>
@@ -3940,7 +3951,7 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="3">
         <v>42594</v>
@@ -3995,7 +4006,7 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="3">
         <v>42594</v>
@@ -4052,7 +4063,7 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="3">
         <v>42594</v>
@@ -7270,4 +7281,40 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="42">
+        <v>43354</v>
+      </c>
+      <c r="B2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>